--- a/static/Models/Regression/Equation/Information Technology.xlsx
+++ b/static/Models/Regression/Equation/Information Technology.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.006618112791329622</v>
+        <v>0.006051088217645884</v>
       </c>
       <c r="C2">
-        <v>0.03095832280814648</v>
+        <v>0.0309597235172987</v>
       </c>
       <c r="D2">
-        <v>-0.08644788712263107</v>
+        <v>-0.08054586499929428</v>
       </c>
       <c r="E2">
-        <v>0.1901306360960007</v>
+        <v>0.1922224164009094</v>
       </c>
       <c r="F2">
-        <v>-0.003986291121691465</v>
+        <v>-0.006546329241245985</v>
       </c>
       <c r="G2">
-        <v>0.2014938592910767</v>
+        <v>0.2025393694639206</v>
       </c>
       <c r="H2">
-        <v>0.0002747375110629946</v>
+        <v>0.003123931819573045</v>
       </c>
       <c r="I2">
-        <v>-0.005870415829122066</v>
+        <v>-0.007046821527183056</v>
       </c>
       <c r="J2">
-        <v>-0.1021297872066498</v>
+        <v>-0.1065068170428276</v>
       </c>
       <c r="K2">
-        <v>0.004645124077796936</v>
+        <v>0.004722940269857645</v>
       </c>
       <c r="L2">
-        <v>0.001289852545596659</v>
+        <v>-0.0004298320855014026</v>
       </c>
       <c r="M2">
-        <v>0.004070942290127277</v>
+        <v>0.005389374680817127</v>
       </c>
       <c r="N2">
-        <v>0.001182270585559309</v>
+        <v>0.001731230760924518</v>
       </c>
       <c r="O2">
-        <v>0.02777323871850967</v>
+        <v>0.02733935788273811</v>
       </c>
       <c r="P2">
-        <v>0.08372402191162109</v>
+        <v>0.07861503213644028</v>
       </c>
       <c r="Q2">
-        <v>0.008738157339394093</v>
+        <v>0.01294506713747978</v>
       </c>
       <c r="R2">
-        <v>-0.0003698712971527129</v>
+        <v>0.001123007503338158</v>
       </c>
       <c r="S2">
-        <v>-0.01028111483901739</v>
+        <v>-0.01037079934030771</v>
       </c>
       <c r="T2">
-        <v>0.005185280460864305</v>
+        <v>0.004890894517302513</v>
       </c>
       <c r="U2">
-        <v>-0.0003933061088901013</v>
+        <v>-0.0003018177521880716</v>
       </c>
       <c r="V2">
-        <v>0.002103558741509914</v>
+        <v>-0.00357269193045795</v>
       </c>
       <c r="W2">
-        <v>0.07554076611995697</v>
+        <v>0.07267824560403824</v>
       </c>
       <c r="X2">
-        <v>-0.001610466744750738</v>
+        <v>0.003457113401964307</v>
       </c>
       <c r="Y2">
-        <v>-0.004742969293147326</v>
+        <v>-0.004971122834831476</v>
       </c>
       <c r="Z2">
-        <v>0.08498683571815491</v>
+        <v>0.08002091199159622</v>
       </c>
       <c r="AA2">
-        <v>-0.004278868436813354</v>
+        <v>-0.002753190463408828</v>
       </c>
       <c r="AB2">
-        <v>-0.0648842453956604</v>
+        <v>-0.06135407835245132</v>
       </c>
       <c r="AC2">
-        <v>0.002948595210909843</v>
+        <v>0.0004893335863016546</v>
       </c>
       <c r="AD2">
-        <v>-0.005582691170275211</v>
+        <v>-0.005747989751398563</v>
       </c>
       <c r="AE2">
-        <v>-0.02974041923880577</v>
+        <v>-0.02732410654425621</v>
       </c>
       <c r="AF2">
-        <v>-0.008980865590274334</v>
+        <v>-0.004577325657010078</v>
       </c>
       <c r="AG2">
-        <v>-0.1843364238739014</v>
+        <v>-0.1878491044044495</v>
       </c>
       <c r="AH2">
-        <v>-0.05956120043992996</v>
+        <v>-0.06260135024785995</v>
       </c>
       <c r="AI2">
-        <v>-0.0534805953502655</v>
+        <v>-0.05042270198464394</v>
       </c>
       <c r="AJ2">
-        <v>0.008154681883752346</v>
+        <v>0.01040275488048792</v>
       </c>
       <c r="AK2">
-        <v>-0.007870553992688656</v>
+        <v>-0.002606463152915239</v>
       </c>
       <c r="AL2">
-        <v>0.0006487848586402833</v>
+        <v>-0.005027334205806255</v>
       </c>
       <c r="AM2">
-        <v>-0.05813242867588997</v>
+        <v>-0.05354560911655426</v>
       </c>
       <c r="AN2">
-        <v>-0.07839223742485046</v>
+        <v>-0.0776016041636467</v>
       </c>
       <c r="AO2">
-        <v>0.1116937920451164</v>
+        <v>0.1112089306116104</v>
       </c>
       <c r="AP2">
-        <v>0.1955725252628326</v>
+        <v>0.1941589564085007</v>
       </c>
       <c r="AQ2">
-        <v>-0.0009142712224274874</v>
+        <v>0.001122168148867786</v>
       </c>
       <c r="AR2">
-        <v>-0.01863104850053787</v>
+        <v>-0.01540085859596729</v>
       </c>
       <c r="AS2">
-        <v>0.1620496213436127</v>
+        <v>0.164635568857193</v>
       </c>
       <c r="AT2">
-        <v>-0.02770661562681198</v>
+        <v>-0.02450592070817947</v>
       </c>
       <c r="AU2">
-        <v>-0.04494722560048103</v>
+        <v>-0.04325935617089272</v>
       </c>
       <c r="AV2">
-        <v>-0.06302911788225174</v>
+        <v>-0.06400594115257263</v>
       </c>
       <c r="AW2">
-        <v>-0.007184704765677452</v>
+        <v>-0.005476897116750479</v>
       </c>
       <c r="AX2">
-        <v>0.002035678829997778</v>
+        <v>0.00374305946752429</v>
       </c>
       <c r="AY2">
-        <v>0.02051860652863979</v>
+        <v>0.01993685401976109</v>
       </c>
       <c r="AZ2">
-        <v>-0.05732806026935577</v>
+        <v>-0.05486386269330978</v>
       </c>
       <c r="BA2">
-        <v>0.02206153981387615</v>
+        <v>0.02126979827880859</v>
       </c>
       <c r="BB2">
-        <v>0.04626027494668961</v>
+        <v>0.04764135181903839</v>
       </c>
       <c r="BC2">
-        <v>0.0003026002668775618</v>
+        <v>-0.0009136305307038128</v>
       </c>
       <c r="BD2">
-        <v>0.03256368637084961</v>
+        <v>0.03220025077462196</v>
       </c>
       <c r="BE2">
-        <v>-0.008760375902056694</v>
+        <v>-0.005597805138677359</v>
       </c>
       <c r="BF2">
-        <v>-0.01521194726228714</v>
+        <v>-0.01322407647967339</v>
       </c>
       <c r="BG2">
-        <v>0.09010130167007446</v>
+        <v>0.08973626047372818</v>
       </c>
       <c r="BH2">
-        <v>0.0002900963299907744</v>
+        <v>0.005497392732650042</v>
       </c>
       <c r="BI2">
-        <v>0.06500702351331711</v>
+        <v>0.06448953598737717</v>
       </c>
       <c r="BJ2">
-        <v>-0.02924854122102261</v>
+        <v>-0.02520907297730446</v>
       </c>
       <c r="BK2">
-        <v>-0.002177277812734246</v>
+        <v>-0.006343704182654619</v>
       </c>
       <c r="BL2">
-        <v>0.05063970759510994</v>
+        <v>0.05003542453050613</v>
       </c>
       <c r="BM2">
-        <v>-0.03167887404561043</v>
+        <v>-0.02529794909060001</v>
       </c>
       <c r="BN2">
-        <v>0.01869224011898041</v>
+        <v>0.01660283468663692</v>
       </c>
       <c r="BO2">
-        <v>-0.009622302837669849</v>
+        <v>-0.01557376049458981</v>
       </c>
       <c r="BP2">
-        <v>-0.04358971118927002</v>
+        <v>-0.04400463402271271</v>
       </c>
       <c r="BQ2">
-        <v>-0.08825162053108215</v>
+        <v>-0.08824482560157776</v>
       </c>
       <c r="BR2">
-        <v>-0.005615937523543835</v>
+        <v>0.002195576671510935</v>
       </c>
       <c r="BS2">
-        <v>-0.01133329980075359</v>
+        <v>-0.00743004959076643</v>
       </c>
       <c r="BT2">
-        <v>-0.006330979522317648</v>
+        <v>-0.003126142080873251</v>
       </c>
       <c r="BU2">
-        <v>-0.002108638873323798</v>
+        <v>-0.002047321060672402</v>
       </c>
       <c r="BV2">
-        <v>-0.05860787257552147</v>
+        <v>-0.05769667401909828</v>
       </c>
       <c r="BW2">
-        <v>0.004076205659657717</v>
+        <v>0.008561932481825352</v>
       </c>
       <c r="BX2">
-        <v>0.08659781515598297</v>
+        <v>0.08167175203561783</v>
       </c>
       <c r="BY2">
-        <v>0.0007083333330228925</v>
+        <v>0.004678572993725538</v>
       </c>
       <c r="BZ2">
-        <v>0.01693733967840672</v>
+        <v>0.0132065499201417</v>
       </c>
       <c r="CA2">
-        <v>-0.00764754880219698</v>
+        <v>-0.003697920357808471</v>
       </c>
       <c r="CB2">
-        <v>-0.1421242356300354</v>
+        <v>-0.1400573402643204</v>
       </c>
       <c r="CC2">
-        <v>0.006230765487998724</v>
+        <v>0.006226153112947941</v>
       </c>
       <c r="CD2">
-        <v>0.00805415865033865</v>
+        <v>0.010500842705369</v>
       </c>
       <c r="CE2">
-        <v>-0.09903039038181305</v>
+        <v>-0.0995635911822319</v>
       </c>
       <c r="CF2">
-        <v>0.005581755191087723</v>
+        <v>0.002776016481220722</v>
       </c>
       <c r="CG2">
-        <v>-0.01759376749396324</v>
+        <v>-0.02388869412243366</v>
       </c>
       <c r="CH2">
-        <v>-0.02295942604541779</v>
+        <v>-0.02058855630457401</v>
       </c>
       <c r="CI2">
-        <v>0.017609728500247</v>
+        <v>0.01713450253009796</v>
       </c>
       <c r="CJ2">
-        <v>-0.08280050009489059</v>
+        <v>-0.08595658838748932</v>
       </c>
       <c r="CK2">
-        <v>0.003162965178489685</v>
+        <v>0.002683741040527821</v>
       </c>
       <c r="CL2">
-        <v>-0.0113337179645896</v>
+        <v>-0.01190434210002422</v>
       </c>
       <c r="CM2">
-        <v>-0.1098646149039268</v>
+        <v>-0.1094902604818344</v>
       </c>
       <c r="CN2">
-        <v>-0.001994733233004808</v>
+        <v>-0.00518887210637331</v>
       </c>
       <c r="CO2">
-        <v>0.0004910582792945206</v>
+        <v>0.0002710314292926341</v>
       </c>
       <c r="CP2">
-        <v>0.03067070245742798</v>
+        <v>0.0342717282474041</v>
       </c>
       <c r="CQ2">
-        <v>-0.03848766908049583</v>
+        <v>-0.03834985569119453</v>
       </c>
       <c r="CR2">
-        <v>0.004364404361695051</v>
+        <v>0.00854955893009901</v>
       </c>
       <c r="CS2">
-        <v>0.001766946283169091</v>
+        <v>0.002170339459553361</v>
       </c>
       <c r="CT2">
-        <v>-0.007035563699901104</v>
+        <v>-0.007312240079045296</v>
       </c>
       <c r="CU2">
-        <v>-0.001105852075852454</v>
+        <v>0.001478290185332298</v>
       </c>
       <c r="CV2">
-        <v>0.003439571941271424</v>
+        <v>0.005434828344732523</v>
       </c>
       <c r="CW2">
-        <v>-0.09841270744800568</v>
+        <v>-0.08879314363002777</v>
       </c>
       <c r="CX2">
-        <v>0.0007553254836238921</v>
+        <v>0.001357070868834853</v>
       </c>
       <c r="CY2">
-        <v>-0.0113279614597559</v>
+        <v>-0.008800375275313854</v>
       </c>
       <c r="CZ2">
-        <v>0.002274895552545786</v>
+        <v>0.003918897360563278</v>
       </c>
       <c r="DA2">
-        <v>-0.03686283901333809</v>
+        <v>-0.0388612188398838</v>
       </c>
       <c r="DB2">
-        <v>-0.01337863970547915</v>
+        <v>-0.01024827919900417</v>
       </c>
       <c r="DC2">
-        <v>0.006909335497766733</v>
+        <v>-8.337057806784287E-05</v>
       </c>
       <c r="DD2">
-        <v>0.1914899349212646</v>
+        <v>0.18818399310112</v>
       </c>
       <c r="DE2">
-        <v>0.006183990743011236</v>
+        <v>0.006685651373118162</v>
       </c>
       <c r="DF2">
-        <v>0.0349043533205986</v>
+        <v>0.03312764689326286</v>
       </c>
       <c r="DG2">
-        <v>0.003203940112143755</v>
+        <v>0.005423816852271557</v>
       </c>
       <c r="DH2">
-        <v>0.03559531643986702</v>
+        <v>0.03304074704647064</v>
       </c>
       <c r="DI2">
-        <v>0.005663834977895021</v>
+        <v>0.002808219054713845</v>
       </c>
       <c r="DJ2">
-        <v>0.213003858923912</v>
+        <v>0.220353290438652</v>
       </c>
       <c r="DK2">
-        <v>-0.08537657558917999</v>
+        <v>-0.08585175126791</v>
       </c>
       <c r="DL2">
-        <v>-0.08278825134038925</v>
+        <v>-0.09022816270589828</v>
       </c>
       <c r="DM2">
-        <v>-0.05956827849149704</v>
+        <v>-0.06010811403393745</v>
       </c>
       <c r="DN2">
-        <v>-0.1055390164256096</v>
+        <v>-0.105899378657341</v>
       </c>
       <c r="DO2">
-        <v>-0.1175135895609856</v>
+        <v>-0.1216289922595024</v>
       </c>
       <c r="DP2">
-        <v>0.002212366322055459</v>
+        <v>0.001421433407813311</v>
       </c>
       <c r="DQ2">
-        <v>0.002032415475696325</v>
+        <v>0.0020905458368361</v>
       </c>
       <c r="DR2">
-        <v>0.008743270300328732</v>
+        <v>0.002660190686583519</v>
       </c>
       <c r="DS2">
-        <v>-0.01721634157001972</v>
+        <v>-0.01698093675076962</v>
       </c>
       <c r="DT2">
-        <v>0.01049957145005465</v>
+        <v>0.008653144352138042</v>
       </c>
       <c r="DU2">
-        <v>-0.05058952793478966</v>
+        <v>-0.05216358229517937</v>
       </c>
       <c r="DV2">
-        <v>0.001882018055766821</v>
+        <v>-0.0008094085496850312</v>
       </c>
       <c r="DW2">
-        <v>0.003350742859765887</v>
+        <v>0.004181380849331617</v>
       </c>
       <c r="DX2">
-        <v>-0.01131368614733219</v>
+        <v>-0.01156978867948055</v>
       </c>
       <c r="DY2">
-        <v>0.2040163576602936</v>
+        <v>0.1998890191316605</v>
       </c>
       <c r="DZ2">
-        <v>-0.007111973594874144</v>
+        <v>-0.007055114489048719</v>
       </c>
       <c r="EA2">
-        <v>-0.05376692116260529</v>
+        <v>-0.05577626079320908</v>
       </c>
       <c r="EB2">
-        <v>-0.02742962725460529</v>
+        <v>-0.02761988900601864</v>
       </c>
       <c r="EC2">
-        <v>-0.002558429026976228</v>
+        <v>-0.002599968574941158</v>
       </c>
       <c r="ED2">
-        <v>-0.04584724456071854</v>
+        <v>-0.04645304009318352</v>
       </c>
       <c r="EE2">
-        <v>-0.003846599254757166</v>
+        <v>-0.003002288518473506</v>
       </c>
       <c r="EF2">
-        <v>0.06104806810617447</v>
+        <v>0.06114780157804489</v>
       </c>
       <c r="EG2">
-        <v>0.08944471925497055</v>
+        <v>0.09435789287090302</v>
       </c>
       <c r="EH2">
-        <v>-0.2112875431776047</v>
+        <v>-0.2126906514167786</v>
       </c>
       <c r="EI2">
-        <v>0.03952955454587936</v>
+        <v>0.03619036450982094</v>
       </c>
       <c r="EJ2">
-        <v>-0.04362055286765099</v>
+        <v>-0.04179735481739044</v>
       </c>
       <c r="EK2">
-        <v>-0.004228458739817142</v>
+        <v>-0.005054648034274578</v>
       </c>
       <c r="EL2">
-        <v>-0.00336391874589026</v>
+        <v>-0.003505745436996222</v>
       </c>
       <c r="EM2">
-        <v>-0.05251582711935043</v>
+        <v>-0.0507223978638649</v>
       </c>
       <c r="EN2">
-        <v>-0.102720282971859</v>
+        <v>-0.1047738045454025</v>
       </c>
       <c r="EO2">
-        <v>0.06784605234861374</v>
+        <v>0.06150630116462708</v>
       </c>
       <c r="EP2">
-        <v>-0.0588250644505024</v>
+        <v>-0.05599251016974449</v>
       </c>
       <c r="EQ2">
-        <v>-0.09139003604650497</v>
+        <v>-0.09631527960300446</v>
       </c>
       <c r="ER2">
-        <v>0.0001036735266097821</v>
+        <v>-0.0009042111923918128</v>
       </c>
       <c r="ES2">
-        <v>0.02422862313687801</v>
+        <v>0.02163620293140411</v>
       </c>
       <c r="ET2">
-        <v>-0.1056411564350128</v>
+        <v>-0.1110000982880592</v>
       </c>
       <c r="EU2">
-        <v>0.02041848748922348</v>
+        <v>0.01781922578811646</v>
       </c>
       <c r="EV2">
-        <v>0.07729604095220566</v>
+        <v>0.07191082090139389</v>
       </c>
       <c r="EW2">
-        <v>-0.05570238828659058</v>
+        <v>-0.0565543994307518</v>
       </c>
       <c r="EX2">
-        <v>-0.1515405029058456</v>
+        <v>-0.1550230085849762</v>
       </c>
       <c r="EY2">
-        <v>-0.006801639683544636</v>
+        <v>-0.005735432263463736</v>
       </c>
       <c r="EZ2">
-        <v>-0.06025315448641777</v>
+        <v>-0.06030867248773575</v>
       </c>
       <c r="FA2">
-        <v>0.004842291586101055</v>
+        <v>0.00494776526466012</v>
       </c>
       <c r="FB2">
-        <v>0.0104680759832263</v>
+        <v>0.01083101239055395</v>
       </c>
       <c r="FC2">
-        <v>-0.108822874724865</v>
+        <v>-0.1101287454366684</v>
       </c>
       <c r="FD2">
-        <v>0.007766914088279009</v>
+        <v>0.009336571209132671</v>
       </c>
       <c r="FE2">
-        <v>-0.05697140842676163</v>
+        <v>-0.05836151540279388</v>
       </c>
       <c r="FF2">
-        <v>-0.07142441719770432</v>
+        <v>-0.06967988610267639</v>
       </c>
       <c r="FG2">
-        <v>-0.1647857576608658</v>
+        <v>-0.1628261059522629</v>
       </c>
       <c r="FH2">
-        <v>0.001198728219605982</v>
+        <v>0.002468373160809278</v>
       </c>
       <c r="FI2">
-        <v>0.007024866528809071</v>
+        <v>0.005500068422406912</v>
       </c>
       <c r="FJ2">
-        <v>0.02454504929482937</v>
+        <v>0.02909630723297596</v>
       </c>
       <c r="FK2">
-        <v>0.02155058272182941</v>
+        <v>0.02418934181332588</v>
       </c>
       <c r="FL2">
-        <v>0.01923573948442936</v>
+        <v>0.02384601347148418</v>
       </c>
       <c r="FM2">
-        <v>-0.02110296487808228</v>
+        <v>-0.01236816588789225</v>
       </c>
       <c r="FN2">
-        <v>-0.006242473144084215</v>
+        <v>-0.008192974142730236</v>
       </c>
       <c r="FO2">
-        <v>0.0003367770987097174</v>
+        <v>-0.002943998435512185</v>
       </c>
       <c r="FP2">
-        <v>0.004631237126886845</v>
+        <v>0.006231672596186399</v>
       </c>
       <c r="FQ2">
-        <v>0.00292417430318892</v>
+        <v>0.002950594294816256</v>
       </c>
       <c r="FR2">
-        <v>0.0011567686451599</v>
+        <v>0.001378617947921157</v>
       </c>
       <c r="FS2">
-        <v>0.0002430431632092223</v>
+        <v>-0.0005657774745486677</v>
       </c>
       <c r="FT2">
-        <v>0.0006253887549974024</v>
+        <v>0.001212698174640536</v>
       </c>
       <c r="FU2">
-        <v>0.01968403160572052</v>
+        <v>0.0192121509462595</v>
       </c>
       <c r="FV2">
-        <v>-0.009814574383199215</v>
+        <v>-0.01017678808420897</v>
       </c>
       <c r="FW2">
-        <v>0.05725031346082687</v>
+        <v>0.05816619098186493</v>
       </c>
       <c r="FX2">
-        <v>-0.001968872034922242</v>
+        <v>-0.003287603845819831</v>
       </c>
       <c r="FY2">
-        <v>-0.003393605118617415</v>
+        <v>-0.004639219958335161</v>
       </c>
       <c r="FZ2">
-        <v>-0.001041931798681617</v>
+        <v>0.00179351563565433</v>
       </c>
       <c r="GA2">
-        <v>0.05440615862607956</v>
+        <v>0.04958900436758995</v>
       </c>
       <c r="GB2">
-        <v>-0.004077147226780653</v>
+        <v>-0.00363416108302772</v>
       </c>
       <c r="GC2">
-        <v>-0.03988403081893921</v>
+        <v>-0.04059678316116333</v>
       </c>
       <c r="GD2">
-        <v>-0.03876206278800964</v>
+        <v>-0.03828463703393936</v>
       </c>
       <c r="GE2">
-        <v>0.002456849906593561</v>
+        <v>0.00217755394987762</v>
       </c>
       <c r="GF2">
-        <v>0.01910101808607578</v>
+        <v>0.01711110398173332</v>
       </c>
       <c r="GG2">
-        <v>-0.01288595050573349</v>
+        <v>-0.01265712454915047</v>
       </c>
       <c r="GH2">
-        <v>-4.305447873775847E-05</v>
+        <v>0.001712907571345568</v>
       </c>
       <c r="GI2">
-        <v>-0.07635948807001114</v>
+        <v>-0.07275086641311646</v>
       </c>
       <c r="GJ2">
-        <v>-0.007839989848434925</v>
+        <v>-0.009737518616020679</v>
       </c>
       <c r="GK2">
-        <v>0.02939554862678051</v>
+        <v>0.0276575293391943</v>
       </c>
       <c r="GL2">
-        <v>-0.06494706869125366</v>
+        <v>-0.06287479400634766</v>
       </c>
       <c r="GM2">
-        <v>0.003555916482582688</v>
+        <v>0.007213048171252012</v>
       </c>
       <c r="GN2">
-        <v>0.01413824036717415</v>
+        <v>0.01645407825708389</v>
       </c>
       <c r="GO2">
-        <v>-0.05740536376833916</v>
+        <v>-0.06046998500823975</v>
       </c>
       <c r="GP2">
-        <v>0.04352258518338203</v>
+        <v>0.04274873062968254</v>
       </c>
       <c r="GQ2">
-        <v>-0.0002696682640817016</v>
+        <v>0.001908750389702618</v>
       </c>
       <c r="GR2">
-        <v>0.0001868175895651802</v>
+        <v>-0.000222169968765229</v>
       </c>
       <c r="GS2">
-        <v>-0.008239433169364929</v>
+        <v>-0.006771680898964405</v>
       </c>
       <c r="GT2">
-        <v>-0.00464977603405714</v>
+        <v>-0.007786615286022425</v>
       </c>
       <c r="GU2">
-        <v>-0.0188648346811533</v>
+        <v>-0.01731718145310879</v>
       </c>
       <c r="GV2">
-        <v>0.003886653343215585</v>
+        <v>0.005744433496147394</v>
       </c>
       <c r="GW2">
-        <v>0.1336907595396042</v>
+        <v>0.1367308497428894</v>
       </c>
       <c r="GX2">
-        <v>0.003825723193585873</v>
+        <v>0.002703446894884109</v>
       </c>
       <c r="GY2">
-        <v>-0.01036978326737881</v>
+        <v>-0.01080315839499235</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Information Technology.xlsx
+++ b/static/Models/Regression/Equation/Information Technology.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.006051088217645884</v>
+        <v>0.006935188081115484</v>
       </c>
       <c r="C2">
-        <v>0.0309597235172987</v>
+        <v>0.03173859789967537</v>
       </c>
       <c r="D2">
-        <v>-0.08054586499929428</v>
+        <v>-0.07918760925531387</v>
       </c>
       <c r="E2">
-        <v>0.1922224164009094</v>
+        <v>0.1937278211116791</v>
       </c>
       <c r="F2">
-        <v>-0.006546329241245985</v>
+        <v>-0.01072922069579363</v>
       </c>
       <c r="G2">
-        <v>0.2025393694639206</v>
+        <v>0.2054519355297089</v>
       </c>
       <c r="H2">
-        <v>0.003123931819573045</v>
+        <v>0.00287873693741858</v>
       </c>
       <c r="I2">
-        <v>-0.007046821527183056</v>
+        <v>-0.005882502067834139</v>
       </c>
       <c r="J2">
-        <v>-0.1065068170428276</v>
+        <v>-0.1049604117870331</v>
       </c>
       <c r="K2">
-        <v>0.004722940269857645</v>
+        <v>0.001122708083130419</v>
       </c>
       <c r="L2">
-        <v>-0.0004298320855014026</v>
+        <v>-0.0009251055889762938</v>
       </c>
       <c r="M2">
-        <v>0.005389374680817127</v>
+        <v>0.005836169235408306</v>
       </c>
       <c r="N2">
-        <v>0.001731230760924518</v>
+        <v>-0.002163252560421824</v>
       </c>
       <c r="O2">
-        <v>0.02733935788273811</v>
+        <v>0.03001987747848034</v>
       </c>
       <c r="P2">
-        <v>0.07861503213644028</v>
+        <v>0.0773930698633194</v>
       </c>
       <c r="Q2">
-        <v>0.01294506713747978</v>
+        <v>0.01295975875109434</v>
       </c>
       <c r="R2">
-        <v>0.001123007503338158</v>
+        <v>0.001555730937980115</v>
       </c>
       <c r="S2">
-        <v>-0.01037079934030771</v>
+        <v>-0.008813454769551754</v>
       </c>
       <c r="T2">
-        <v>0.004890894517302513</v>
+        <v>0.005384624004364014</v>
       </c>
       <c r="U2">
-        <v>-0.0003018177521880716</v>
+        <v>0.004567326046526432</v>
       </c>
       <c r="V2">
-        <v>-0.00357269193045795</v>
+        <v>-0.002160891424864531</v>
       </c>
       <c r="W2">
-        <v>0.07267824560403824</v>
+        <v>0.07479885965585709</v>
       </c>
       <c r="X2">
-        <v>0.003457113401964307</v>
+        <v>0.003434382844716311</v>
       </c>
       <c r="Y2">
-        <v>-0.004971122834831476</v>
+        <v>-0.003552171634510159</v>
       </c>
       <c r="Z2">
-        <v>0.08002091199159622</v>
+        <v>0.07335986942052841</v>
       </c>
       <c r="AA2">
-        <v>-0.002753190463408828</v>
+        <v>-0.002740404568612576</v>
       </c>
       <c r="AB2">
-        <v>-0.06135407835245132</v>
+        <v>-0.06035979837179184</v>
       </c>
       <c r="AC2">
-        <v>0.0004893335863016546</v>
+        <v>-0.000156207024701871</v>
       </c>
       <c r="AD2">
-        <v>-0.005747989751398563</v>
+        <v>-0.005259282886981964</v>
       </c>
       <c r="AE2">
-        <v>-0.02732410654425621</v>
+        <v>-0.02675027213990688</v>
       </c>
       <c r="AF2">
-        <v>-0.004577325657010078</v>
+        <v>-0.0005447518778964877</v>
       </c>
       <c r="AG2">
-        <v>-0.1878491044044495</v>
+        <v>-0.1871405988931656</v>
       </c>
       <c r="AH2">
-        <v>-0.06260135024785995</v>
+        <v>-0.06459314376115799</v>
       </c>
       <c r="AI2">
-        <v>-0.05042270198464394</v>
+        <v>-0.05702321976423264</v>
       </c>
       <c r="AJ2">
-        <v>0.01040275488048792</v>
+        <v>0.00917420070618391</v>
       </c>
       <c r="AK2">
-        <v>-0.002606463152915239</v>
+        <v>-0.003893432905897498</v>
       </c>
       <c r="AL2">
-        <v>-0.005027334205806255</v>
+        <v>0.0005143801681697369</v>
       </c>
       <c r="AM2">
-        <v>-0.05354560911655426</v>
+        <v>-0.05348041653633118</v>
       </c>
       <c r="AN2">
-        <v>-0.0776016041636467</v>
+        <v>-0.07290170341730118</v>
       </c>
       <c r="AO2">
-        <v>0.1112089306116104</v>
+        <v>0.1088327616453171</v>
       </c>
       <c r="AP2">
-        <v>0.1941589564085007</v>
+        <v>0.1900250017642975</v>
       </c>
       <c r="AQ2">
-        <v>0.001122168148867786</v>
+        <v>0.0001675305684329942</v>
       </c>
       <c r="AR2">
-        <v>-0.01540085859596729</v>
+        <v>-0.01123485900461674</v>
       </c>
       <c r="AS2">
-        <v>0.164635568857193</v>
+        <v>0.1705739349126816</v>
       </c>
       <c r="AT2">
-        <v>-0.02450592070817947</v>
+        <v>-0.02415254898369312</v>
       </c>
       <c r="AU2">
-        <v>-0.04325935617089272</v>
+        <v>-0.04420898109674454</v>
       </c>
       <c r="AV2">
-        <v>-0.06400594115257263</v>
+        <v>-0.06802333146333694</v>
       </c>
       <c r="AW2">
-        <v>-0.005476897116750479</v>
+        <v>-0.007240475155413151</v>
       </c>
       <c r="AX2">
-        <v>0.00374305946752429</v>
+        <v>0.002601611660793424</v>
       </c>
       <c r="AY2">
-        <v>0.01993685401976109</v>
+        <v>0.02271172031760216</v>
       </c>
       <c r="AZ2">
-        <v>-0.05486386269330978</v>
+        <v>-0.06112263351678848</v>
       </c>
       <c r="BA2">
-        <v>0.02126979827880859</v>
+        <v>0.01975175738334656</v>
       </c>
       <c r="BB2">
-        <v>0.04764135181903839</v>
+        <v>0.04765996336936951</v>
       </c>
       <c r="BC2">
-        <v>-0.0009136305307038128</v>
+        <v>-0.002785338321700692</v>
       </c>
       <c r="BD2">
-        <v>0.03220025077462196</v>
+        <v>0.03276242688298225</v>
       </c>
       <c r="BE2">
-        <v>-0.005597805138677359</v>
+        <v>-0.004702250007539988</v>
       </c>
       <c r="BF2">
-        <v>-0.01322407647967339</v>
+        <v>-0.01160061080008745</v>
       </c>
       <c r="BG2">
-        <v>0.08973626047372818</v>
+        <v>0.09035035967826843</v>
       </c>
       <c r="BH2">
-        <v>0.005497392732650042</v>
+        <v>0.004585335496813059</v>
       </c>
       <c r="BI2">
-        <v>0.06448953598737717</v>
+        <v>0.06495022028684616</v>
       </c>
       <c r="BJ2">
-        <v>-0.02520907297730446</v>
+        <v>-0.02851239219307899</v>
       </c>
       <c r="BK2">
-        <v>-0.006343704182654619</v>
+        <v>-0.008691725321114063</v>
       </c>
       <c r="BL2">
-        <v>0.05003542453050613</v>
+        <v>0.04996807128190994</v>
       </c>
       <c r="BM2">
-        <v>-0.02529794909060001</v>
+        <v>-0.0235618595033884</v>
       </c>
       <c r="BN2">
-        <v>0.01660283468663692</v>
+        <v>0.01968190260231495</v>
       </c>
       <c r="BO2">
-        <v>-0.01557376049458981</v>
+        <v>-0.01452792808413506</v>
       </c>
       <c r="BP2">
-        <v>-0.04400463402271271</v>
+        <v>-0.04561260342597961</v>
       </c>
       <c r="BQ2">
-        <v>-0.08824482560157776</v>
+        <v>-0.08679539710283279</v>
       </c>
       <c r="BR2">
-        <v>0.002195576671510935</v>
+        <v>0.00247434969060123</v>
       </c>
       <c r="BS2">
-        <v>-0.00743004959076643</v>
+        <v>-0.002620527520775795</v>
       </c>
       <c r="BT2">
-        <v>-0.003126142080873251</v>
+        <v>-0.003083915216848254</v>
       </c>
       <c r="BU2">
-        <v>-0.002047321060672402</v>
+        <v>-0.00092573172878474</v>
       </c>
       <c r="BV2">
-        <v>-0.05769667401909828</v>
+        <v>-0.05504140257835388</v>
       </c>
       <c r="BW2">
-        <v>0.008561932481825352</v>
+        <v>0.006814784370362759</v>
       </c>
       <c r="BX2">
-        <v>0.08167175203561783</v>
+        <v>0.08314309269189835</v>
       </c>
       <c r="BY2">
-        <v>0.004678572993725538</v>
+        <v>0.0006806909223087132</v>
       </c>
       <c r="BZ2">
-        <v>0.0132065499201417</v>
+        <v>0.01492591761052608</v>
       </c>
       <c r="CA2">
-        <v>-0.003697920357808471</v>
+        <v>-0.005211740732192993</v>
       </c>
       <c r="CB2">
-        <v>-0.1400573402643204</v>
+        <v>-0.1354726999998093</v>
       </c>
       <c r="CC2">
-        <v>0.006226153112947941</v>
+        <v>0.007355683483183384</v>
       </c>
       <c r="CD2">
-        <v>0.010500842705369</v>
+        <v>0.01194385625422001</v>
       </c>
       <c r="CE2">
-        <v>-0.0995635911822319</v>
+        <v>-0.1015563532710075</v>
       </c>
       <c r="CF2">
-        <v>0.002776016481220722</v>
+        <v>0.004951346665620804</v>
       </c>
       <c r="CG2">
-        <v>-0.02388869412243366</v>
+        <v>-0.02377512864768505</v>
       </c>
       <c r="CH2">
-        <v>-0.02058855630457401</v>
+        <v>-0.01973794773221016</v>
       </c>
       <c r="CI2">
-        <v>0.01713450253009796</v>
+        <v>0.01766892522573471</v>
       </c>
       <c r="CJ2">
-        <v>-0.08595658838748932</v>
+        <v>-0.08974792063236237</v>
       </c>
       <c r="CK2">
-        <v>0.002683741040527821</v>
+        <v>0.003181841224431992</v>
       </c>
       <c r="CL2">
-        <v>-0.01190434210002422</v>
+        <v>-0.01103071123361588</v>
       </c>
       <c r="CM2">
-        <v>-0.1094902604818344</v>
+        <v>-0.1083976775407791</v>
       </c>
       <c r="CN2">
-        <v>-0.00518887210637331</v>
+        <v>-0.006021526642143726</v>
       </c>
       <c r="CO2">
-        <v>0.0002710314292926341</v>
+        <v>0.001101924921385944</v>
       </c>
       <c r="CP2">
-        <v>0.0342717282474041</v>
+        <v>0.03592513501644135</v>
       </c>
       <c r="CQ2">
-        <v>-0.03834985569119453</v>
+        <v>-0.03599068149924278</v>
       </c>
       <c r="CR2">
-        <v>0.00854955893009901</v>
+        <v>0.004293542820960283</v>
       </c>
       <c r="CS2">
-        <v>0.002170339459553361</v>
+        <v>0.002533552702516317</v>
       </c>
       <c r="CT2">
-        <v>-0.007312240079045296</v>
+        <v>-0.006062313448637724</v>
       </c>
       <c r="CU2">
-        <v>0.001478290185332298</v>
+        <v>0.001438072999008</v>
       </c>
       <c r="CV2">
-        <v>0.005434828344732523</v>
+        <v>0.003129682969301939</v>
       </c>
       <c r="CW2">
-        <v>-0.08879314363002777</v>
+        <v>-0.0881645679473877</v>
       </c>
       <c r="CX2">
-        <v>0.001357070868834853</v>
+        <v>0.001909067505039275</v>
       </c>
       <c r="CY2">
-        <v>-0.008800375275313854</v>
+        <v>-0.01012539584189653</v>
       </c>
       <c r="CZ2">
-        <v>0.003918897360563278</v>
+        <v>0.004046651534736156</v>
       </c>
       <c r="DA2">
-        <v>-0.0388612188398838</v>
+        <v>-0.03907959535717964</v>
       </c>
       <c r="DB2">
-        <v>-0.01024827919900417</v>
+        <v>-0.01164477691054344</v>
       </c>
       <c r="DC2">
-        <v>-8.337057806784287E-05</v>
+        <v>-0.002085031243041158</v>
       </c>
       <c r="DD2">
-        <v>0.18818399310112</v>
+        <v>0.1889394521713257</v>
       </c>
       <c r="DE2">
-        <v>0.006685651373118162</v>
+        <v>0.007737220730632544</v>
       </c>
       <c r="DF2">
-        <v>0.03312764689326286</v>
+        <v>0.03204543888568878</v>
       </c>
       <c r="DG2">
-        <v>0.005423816852271557</v>
+        <v>0.001915598521009088</v>
       </c>
       <c r="DH2">
-        <v>0.03304074704647064</v>
+        <v>0.03154686093330383</v>
       </c>
       <c r="DI2">
-        <v>0.002808219054713845</v>
+        <v>0.001745436922647059</v>
       </c>
       <c r="DJ2">
-        <v>0.220353290438652</v>
+        <v>0.2230436950922012</v>
       </c>
       <c r="DK2">
-        <v>-0.08585175126791</v>
+        <v>-0.08421082049608231</v>
       </c>
       <c r="DL2">
-        <v>-0.09022816270589828</v>
+        <v>-0.08969741314649582</v>
       </c>
       <c r="DM2">
-        <v>-0.06010811403393745</v>
+        <v>-0.06164148822426796</v>
       </c>
       <c r="DN2">
-        <v>-0.105899378657341</v>
+        <v>-0.1048646420240402</v>
       </c>
       <c r="DO2">
-        <v>-0.1216289922595024</v>
+        <v>-0.1196359843015671</v>
       </c>
       <c r="DP2">
-        <v>0.001421433407813311</v>
+        <v>0.00310447090305388</v>
       </c>
       <c r="DQ2">
-        <v>0.0020905458368361</v>
+        <v>0.002597721060737967</v>
       </c>
       <c r="DR2">
-        <v>0.002660190686583519</v>
+        <v>0.005185631103813648</v>
       </c>
       <c r="DS2">
-        <v>-0.01698093675076962</v>
+        <v>-0.01510787382721901</v>
       </c>
       <c r="DT2">
-        <v>0.008653144352138042</v>
+        <v>0.01134238298982382</v>
       </c>
       <c r="DU2">
-        <v>-0.05216358229517937</v>
+        <v>-0.0484679751098156</v>
       </c>
       <c r="DV2">
-        <v>-0.0008094085496850312</v>
+        <v>0.0007457490428350866</v>
       </c>
       <c r="DW2">
-        <v>0.004181380849331617</v>
+        <v>0.006341902539134026</v>
       </c>
       <c r="DX2">
-        <v>-0.01156978867948055</v>
+        <v>-0.01057372987270355</v>
       </c>
       <c r="DY2">
-        <v>0.1998890191316605</v>
+        <v>0.1960956454277039</v>
       </c>
       <c r="DZ2">
-        <v>-0.007055114489048719</v>
+        <v>-0.007796141784638166</v>
       </c>
       <c r="EA2">
-        <v>-0.05577626079320908</v>
+        <v>-0.05316168442368507</v>
       </c>
       <c r="EB2">
-        <v>-0.02761988900601864</v>
+        <v>-0.02733871340751648</v>
       </c>
       <c r="EC2">
-        <v>-0.002599968574941158</v>
+        <v>0.001283528166823089</v>
       </c>
       <c r="ED2">
-        <v>-0.04645304009318352</v>
+        <v>-0.04549653455615044</v>
       </c>
       <c r="EE2">
-        <v>-0.003002288518473506</v>
+        <v>-0.002839988796040416</v>
       </c>
       <c r="EF2">
-        <v>0.06114780157804489</v>
+        <v>0.05953938513994217</v>
       </c>
       <c r="EG2">
-        <v>0.09435789287090302</v>
+        <v>0.09391741454601288</v>
       </c>
       <c r="EH2">
-        <v>-0.2126906514167786</v>
+        <v>-0.2084451913833618</v>
       </c>
       <c r="EI2">
-        <v>0.03619036450982094</v>
+        <v>0.03803836554288864</v>
       </c>
       <c r="EJ2">
-        <v>-0.04179735481739044</v>
+        <v>-0.03873065114021301</v>
       </c>
       <c r="EK2">
-        <v>-0.005054648034274578</v>
+        <v>-0.004490590188652277</v>
       </c>
       <c r="EL2">
-        <v>-0.003505745436996222</v>
+        <v>-0.002790996106341481</v>
       </c>
       <c r="EM2">
-        <v>-0.0507223978638649</v>
+        <v>-0.04806913807988167</v>
       </c>
       <c r="EN2">
-        <v>-0.1047738045454025</v>
+        <v>-0.1091926097869873</v>
       </c>
       <c r="EO2">
-        <v>0.06150630116462708</v>
+        <v>0.06114803999662399</v>
       </c>
       <c r="EP2">
-        <v>-0.05599251016974449</v>
+        <v>-0.05887354537844658</v>
       </c>
       <c r="EQ2">
-        <v>-0.09631527960300446</v>
+        <v>-0.09768922626972198</v>
       </c>
       <c r="ER2">
-        <v>-0.0009042111923918128</v>
+        <v>0.0001397729065502062</v>
       </c>
       <c r="ES2">
-        <v>0.02163620293140411</v>
+        <v>0.02044922485947609</v>
       </c>
       <c r="ET2">
-        <v>-0.1110000982880592</v>
+        <v>-0.1117681339383125</v>
       </c>
       <c r="EU2">
-        <v>0.01781922578811646</v>
+        <v>0.02242438308894634</v>
       </c>
       <c r="EV2">
-        <v>0.07191082090139389</v>
+        <v>0.07092845439910889</v>
       </c>
       <c r="EW2">
-        <v>-0.0565543994307518</v>
+        <v>-0.0588613785803318</v>
       </c>
       <c r="EX2">
-        <v>-0.1550230085849762</v>
+        <v>-0.1530543863773346</v>
       </c>
       <c r="EY2">
-        <v>-0.005735432263463736</v>
+        <v>-0.00492179486900568</v>
       </c>
       <c r="EZ2">
-        <v>-0.06030867248773575</v>
+        <v>-0.06358706206083298</v>
       </c>
       <c r="FA2">
-        <v>0.00494776526466012</v>
+        <v>0.005897860042750835</v>
       </c>
       <c r="FB2">
-        <v>0.01083101239055395</v>
+        <v>0.01180034689605236</v>
       </c>
       <c r="FC2">
-        <v>-0.1101287454366684</v>
+        <v>-0.1113733872771263</v>
       </c>
       <c r="FD2">
-        <v>0.009336571209132671</v>
+        <v>0.008524619042873383</v>
       </c>
       <c r="FE2">
-        <v>-0.05836151540279388</v>
+        <v>-0.05627254024147987</v>
       </c>
       <c r="FF2">
-        <v>-0.06967988610267639</v>
+        <v>-0.07364562898874283</v>
       </c>
       <c r="FG2">
-        <v>-0.1628261059522629</v>
+        <v>-0.1623722612857819</v>
       </c>
       <c r="FH2">
-        <v>0.002468373160809278</v>
+        <v>-0.001827960717491806</v>
       </c>
       <c r="FI2">
-        <v>0.005500068422406912</v>
+        <v>0.008927118964493275</v>
       </c>
       <c r="FJ2">
-        <v>0.02909630723297596</v>
+        <v>0.02770507149398327</v>
       </c>
       <c r="FK2">
-        <v>0.02418934181332588</v>
+        <v>0.02964146062731743</v>
       </c>
       <c r="FL2">
-        <v>0.02384601347148418</v>
+        <v>0.02615075930953026</v>
       </c>
       <c r="FM2">
-        <v>-0.01236816588789225</v>
+        <v>-0.008738965727388859</v>
       </c>
       <c r="FN2">
-        <v>-0.008192974142730236</v>
+        <v>-0.007953222841024399</v>
       </c>
       <c r="FO2">
-        <v>-0.002943998435512185</v>
+        <v>-0.001962114358320832</v>
       </c>
       <c r="FP2">
-        <v>0.006231672596186399</v>
+        <v>0.007012577261775732</v>
       </c>
       <c r="FQ2">
-        <v>0.002950594294816256</v>
+        <v>0.003628447186201811</v>
       </c>
       <c r="FR2">
-        <v>0.001378617947921157</v>
+        <v>0.002038764301687479</v>
       </c>
       <c r="FS2">
-        <v>-0.0005657774745486677</v>
+        <v>0.0005324798985384405</v>
       </c>
       <c r="FT2">
-        <v>0.001212698174640536</v>
+        <v>0.001205844455398619</v>
       </c>
       <c r="FU2">
-        <v>0.0192121509462595</v>
+        <v>0.019822146743536</v>
       </c>
       <c r="FV2">
-        <v>-0.01017678808420897</v>
+        <v>-0.009351452812552452</v>
       </c>
       <c r="FW2">
-        <v>0.05816619098186493</v>
+        <v>0.05874941870570183</v>
       </c>
       <c r="FX2">
-        <v>-0.003287603845819831</v>
+        <v>-0.001879860763438046</v>
       </c>
       <c r="FY2">
-        <v>-0.004639219958335161</v>
+        <v>0.0016641013789922</v>
       </c>
       <c r="FZ2">
-        <v>0.00179351563565433</v>
+        <v>-0.0006253119790926576</v>
       </c>
       <c r="GA2">
-        <v>0.04958900436758995</v>
+        <v>0.0507875457406044</v>
       </c>
       <c r="GB2">
-        <v>-0.00363416108302772</v>
+        <v>-0.004690034780651331</v>
       </c>
       <c r="GC2">
-        <v>-0.04059678316116333</v>
+        <v>-0.04271597415208817</v>
       </c>
       <c r="GD2">
-        <v>-0.03828463703393936</v>
+        <v>-0.03616264462471008</v>
       </c>
       <c r="GE2">
-        <v>0.00217755394987762</v>
+        <v>0.002504873089492321</v>
       </c>
       <c r="GF2">
-        <v>0.01711110398173332</v>
+        <v>0.01998836919665337</v>
       </c>
       <c r="GG2">
-        <v>-0.01265712454915047</v>
+        <v>-0.006683110725134611</v>
       </c>
       <c r="GH2">
-        <v>0.001712907571345568</v>
+        <v>0.000341360952006653</v>
       </c>
       <c r="GI2">
-        <v>-0.07275086641311646</v>
+        <v>-0.07183295488357544</v>
       </c>
       <c r="GJ2">
-        <v>-0.009737518616020679</v>
+        <v>-0.006848161108791828</v>
       </c>
       <c r="GK2">
-        <v>0.0276575293391943</v>
+        <v>0.02766403928399086</v>
       </c>
       <c r="GL2">
-        <v>-0.06287479400634766</v>
+        <v>-0.05925744771957397</v>
       </c>
       <c r="GM2">
-        <v>0.007213048171252012</v>
+        <v>0.008301878347992897</v>
       </c>
       <c r="GN2">
-        <v>0.01645407825708389</v>
+        <v>0.01228597667068243</v>
       </c>
       <c r="GO2">
-        <v>-0.06046998500823975</v>
+        <v>-0.06270663440227509</v>
       </c>
       <c r="GP2">
-        <v>0.04274873062968254</v>
+        <v>0.04344719648361206</v>
       </c>
       <c r="GQ2">
-        <v>0.001908750389702618</v>
+        <v>0.002273295540362597</v>
       </c>
       <c r="GR2">
-        <v>-0.000222169968765229</v>
+        <v>-0.002482014242559671</v>
       </c>
       <c r="GS2">
-        <v>-0.006771680898964405</v>
+        <v>-0.005921062547713518</v>
       </c>
       <c r="GT2">
-        <v>-0.007786615286022425</v>
+        <v>-0.006606438662856817</v>
       </c>
       <c r="GU2">
-        <v>-0.01731718145310879</v>
+        <v>-0.01912646368145943</v>
       </c>
       <c r="GV2">
-        <v>0.005744433496147394</v>
+        <v>0.004194263368844986</v>
       </c>
       <c r="GW2">
-        <v>0.1367308497428894</v>
+        <v>0.1392477601766586</v>
       </c>
       <c r="GX2">
-        <v>0.002703446894884109</v>
+        <v>0.005093361716717482</v>
       </c>
       <c r="GY2">
-        <v>-0.01080315839499235</v>
+        <v>-0.01019466016441584</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Information Technology.xlsx
+++ b/static/Models/Regression/Equation/Information Technology.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.006935188081115484</v>
+        <v>0.007770546246320009</v>
       </c>
       <c r="C2">
-        <v>0.03173859789967537</v>
+        <v>0.04036258906126022</v>
       </c>
       <c r="D2">
-        <v>-0.07918760925531387</v>
+        <v>-0.08276290446519852</v>
       </c>
       <c r="E2">
-        <v>0.1937278211116791</v>
+        <v>0.2022385746240616</v>
       </c>
       <c r="F2">
-        <v>-0.01072922069579363</v>
+        <v>-0.004062153398990631</v>
       </c>
       <c r="G2">
-        <v>0.2054519355297089</v>
+        <v>0.1968820989131927</v>
       </c>
       <c r="H2">
-        <v>0.00287873693741858</v>
+        <v>-0.001972766360267997</v>
       </c>
       <c r="I2">
-        <v>-0.005882502067834139</v>
+        <v>-0.007491316180676222</v>
       </c>
       <c r="J2">
-        <v>-0.1049604117870331</v>
+        <v>-0.1049718260765076</v>
       </c>
       <c r="K2">
-        <v>0.001122708083130419</v>
+        <v>-0.000128904270241037</v>
       </c>
       <c r="L2">
-        <v>-0.0009251055889762938</v>
+        <v>-0.003610523883253336</v>
       </c>
       <c r="M2">
-        <v>0.005836169235408306</v>
+        <v>-0.0006822420982643962</v>
       </c>
       <c r="N2">
-        <v>-0.002163252560421824</v>
+        <v>-0.001399673521518707</v>
       </c>
       <c r="O2">
-        <v>0.03001987747848034</v>
+        <v>0.03658338263630867</v>
       </c>
       <c r="P2">
-        <v>0.0773930698633194</v>
+        <v>0.07706029713153839</v>
       </c>
       <c r="Q2">
-        <v>0.01295975875109434</v>
+        <v>0.01152078341692686</v>
       </c>
       <c r="R2">
-        <v>0.001555730937980115</v>
+        <v>-0.00443285470828414</v>
       </c>
       <c r="S2">
-        <v>-0.008813454769551754</v>
+        <v>-0.005517102312296629</v>
       </c>
       <c r="T2">
-        <v>0.005384624004364014</v>
+        <v>0.00477258674800396</v>
       </c>
       <c r="U2">
-        <v>0.004567326046526432</v>
+        <v>-0.0007656519301235676</v>
       </c>
       <c r="V2">
-        <v>-0.002160891424864531</v>
+        <v>-0.008485227823257446</v>
       </c>
       <c r="W2">
-        <v>0.07479885965585709</v>
+        <v>0.07243217527866364</v>
       </c>
       <c r="X2">
-        <v>0.003434382844716311</v>
+        <v>0.001630126498639584</v>
       </c>
       <c r="Y2">
-        <v>-0.003552171634510159</v>
+        <v>0.008259483613073826</v>
       </c>
       <c r="Z2">
-        <v>0.07335986942052841</v>
+        <v>0.06711238622665405</v>
       </c>
       <c r="AA2">
-        <v>-0.002740404568612576</v>
+        <v>-0.0064227688126266</v>
       </c>
       <c r="AB2">
-        <v>-0.06035979837179184</v>
+        <v>-0.0608658604323864</v>
       </c>
       <c r="AC2">
-        <v>-0.000156207024701871</v>
+        <v>-0.005149783566594124</v>
       </c>
       <c r="AD2">
-        <v>-0.005259282886981964</v>
+        <v>-0.006797013804316521</v>
       </c>
       <c r="AE2">
-        <v>-0.02675027213990688</v>
+        <v>-0.02784264273941517</v>
       </c>
       <c r="AF2">
-        <v>-0.0005447518778964877</v>
+        <v>0.004454801790416241</v>
       </c>
       <c r="AG2">
-        <v>-0.1871405988931656</v>
+        <v>-0.192768931388855</v>
       </c>
       <c r="AH2">
-        <v>-0.06459314376115799</v>
+        <v>-0.06252302229404449</v>
       </c>
       <c r="AI2">
-        <v>-0.05702321976423264</v>
+        <v>-0.05485416948795319</v>
       </c>
       <c r="AJ2">
-        <v>0.00917420070618391</v>
+        <v>0.005169234704226255</v>
       </c>
       <c r="AK2">
-        <v>-0.003893432905897498</v>
+        <v>-0.005719960667192936</v>
       </c>
       <c r="AL2">
-        <v>0.0005143801681697369</v>
+        <v>-0.003523203078657389</v>
       </c>
       <c r="AM2">
-        <v>-0.05348041653633118</v>
+        <v>-0.05284921824932098</v>
       </c>
       <c r="AN2">
-        <v>-0.07290170341730118</v>
+        <v>-0.07133485376834869</v>
       </c>
       <c r="AO2">
-        <v>0.1088327616453171</v>
+        <v>0.1146276742219925</v>
       </c>
       <c r="AP2">
-        <v>0.1900250017642975</v>
+        <v>0.1828455328941345</v>
       </c>
       <c r="AQ2">
-        <v>0.0001675305684329942</v>
+        <v>0.003885745536535978</v>
       </c>
       <c r="AR2">
-        <v>-0.01123485900461674</v>
+        <v>-0.01366649754345417</v>
       </c>
       <c r="AS2">
-        <v>0.1705739349126816</v>
+        <v>0.1699150800704956</v>
       </c>
       <c r="AT2">
-        <v>-0.02415254898369312</v>
+        <v>-0.02416298724710941</v>
       </c>
       <c r="AU2">
-        <v>-0.04420898109674454</v>
+        <v>-0.04183855280280113</v>
       </c>
       <c r="AV2">
-        <v>-0.06802333146333694</v>
+        <v>-0.06964306533336639</v>
       </c>
       <c r="AW2">
-        <v>-0.007240475155413151</v>
+        <v>-0.007282687816768885</v>
       </c>
       <c r="AX2">
-        <v>0.002601611660793424</v>
+        <v>0.002552180783823133</v>
       </c>
       <c r="AY2">
-        <v>0.02271172031760216</v>
+        <v>0.01543873734772205</v>
       </c>
       <c r="AZ2">
-        <v>-0.06112263351678848</v>
+        <v>-0.0612841323018074</v>
       </c>
       <c r="BA2">
-        <v>0.01975175738334656</v>
+        <v>0.02313213236629963</v>
       </c>
       <c r="BB2">
-        <v>0.04765996336936951</v>
+        <v>0.04696948081254959</v>
       </c>
       <c r="BC2">
-        <v>-0.002785338321700692</v>
+        <v>-0.00102340942248702</v>
       </c>
       <c r="BD2">
-        <v>0.03276242688298225</v>
+        <v>0.03116551041603088</v>
       </c>
       <c r="BE2">
-        <v>-0.004702250007539988</v>
+        <v>-0.007128383498638868</v>
       </c>
       <c r="BF2">
-        <v>-0.01160061080008745</v>
+        <v>-0.01585385389626026</v>
       </c>
       <c r="BG2">
-        <v>0.09035035967826843</v>
+        <v>0.08937609940767288</v>
       </c>
       <c r="BH2">
-        <v>0.004585335496813059</v>
+        <v>-0.001599514042027295</v>
       </c>
       <c r="BI2">
-        <v>0.06495022028684616</v>
+        <v>0.06412891298532486</v>
       </c>
       <c r="BJ2">
-        <v>-0.02851239219307899</v>
+        <v>-0.02672440558671951</v>
       </c>
       <c r="BK2">
-        <v>-0.008691725321114063</v>
+        <v>-0.003857989329844713</v>
       </c>
       <c r="BL2">
-        <v>0.04996807128190994</v>
+        <v>0.05038933455944061</v>
       </c>
       <c r="BM2">
-        <v>-0.0235618595033884</v>
+        <v>-0.03151900321245193</v>
       </c>
       <c r="BN2">
-        <v>0.01968190260231495</v>
+        <v>0.01787898503243923</v>
       </c>
       <c r="BO2">
-        <v>-0.01452792808413506</v>
+        <v>-0.0132557637989521</v>
       </c>
       <c r="BP2">
-        <v>-0.04561260342597961</v>
+        <v>-0.04543323069810867</v>
       </c>
       <c r="BQ2">
-        <v>-0.08679539710283279</v>
+        <v>-0.08769664913415909</v>
       </c>
       <c r="BR2">
-        <v>0.00247434969060123</v>
+        <v>0.00231360993348062</v>
       </c>
       <c r="BS2">
-        <v>-0.002620527520775795</v>
+        <v>-0.005042685195803642</v>
       </c>
       <c r="BT2">
-        <v>-0.003083915216848254</v>
+        <v>-0.00556357204914093</v>
       </c>
       <c r="BU2">
-        <v>-0.00092573172878474</v>
+        <v>5.080020855530165E-05</v>
       </c>
       <c r="BV2">
-        <v>-0.05504140257835388</v>
+        <v>-0.0636768564581871</v>
       </c>
       <c r="BW2">
-        <v>0.006814784370362759</v>
+        <v>0.005081101786345243</v>
       </c>
       <c r="BX2">
-        <v>0.08314309269189835</v>
+        <v>0.08258496969938278</v>
       </c>
       <c r="BY2">
-        <v>0.0006806909223087132</v>
+        <v>0.003542079357430339</v>
       </c>
       <c r="BZ2">
-        <v>0.01492591761052608</v>
+        <v>0.0153775904327631</v>
       </c>
       <c r="CA2">
-        <v>-0.005211740732192993</v>
+        <v>-0.005446344614028931</v>
       </c>
       <c r="CB2">
-        <v>-0.1354726999998093</v>
+        <v>-0.1331280469894409</v>
       </c>
       <c r="CC2">
-        <v>0.007355683483183384</v>
+        <v>0.007238304708153009</v>
       </c>
       <c r="CD2">
-        <v>0.01194385625422001</v>
+        <v>0.001587567036040127</v>
       </c>
       <c r="CE2">
-        <v>-0.1015563532710075</v>
+        <v>-0.09543263167142868</v>
       </c>
       <c r="CF2">
-        <v>0.004951346665620804</v>
+        <v>-0.0001955279585672542</v>
       </c>
       <c r="CG2">
-        <v>-0.02377512864768505</v>
+        <v>-0.02110999263823032</v>
       </c>
       <c r="CH2">
-        <v>-0.01973794773221016</v>
+        <v>-0.01509248092770576</v>
       </c>
       <c r="CI2">
-        <v>0.01766892522573471</v>
+        <v>0.01577495969831944</v>
       </c>
       <c r="CJ2">
-        <v>-0.08974792063236237</v>
+        <v>-0.08238735795021057</v>
       </c>
       <c r="CK2">
-        <v>0.003181841224431992</v>
+        <v>0.003064461750909686</v>
       </c>
       <c r="CL2">
-        <v>-0.01103071123361588</v>
+        <v>-0.01241589337587357</v>
       </c>
       <c r="CM2">
-        <v>-0.1083976775407791</v>
+        <v>-0.1035061776638031</v>
       </c>
       <c r="CN2">
-        <v>-0.006021526642143726</v>
+        <v>-0.001747798640280962</v>
       </c>
       <c r="CO2">
-        <v>0.001101924921385944</v>
+        <v>-0.0001766145142028108</v>
       </c>
       <c r="CP2">
-        <v>0.03592513501644135</v>
+        <v>0.03420155122876167</v>
       </c>
       <c r="CQ2">
-        <v>-0.03599068149924278</v>
+        <v>-0.02767708711326122</v>
       </c>
       <c r="CR2">
-        <v>0.004293542820960283</v>
+        <v>0.004232493229210377</v>
       </c>
       <c r="CS2">
-        <v>0.002533552702516317</v>
+        <v>-0.0003780052065849304</v>
       </c>
       <c r="CT2">
-        <v>-0.006062313448637724</v>
+        <v>-0.006215482950210571</v>
       </c>
       <c r="CU2">
-        <v>0.001438072999008</v>
+        <v>0.0007993053295649588</v>
       </c>
       <c r="CV2">
-        <v>0.003129682969301939</v>
+        <v>-0.001964993076398969</v>
       </c>
       <c r="CW2">
-        <v>-0.0881645679473877</v>
+        <v>-0.09782574325799942</v>
       </c>
       <c r="CX2">
-        <v>0.001909067505039275</v>
+        <v>0.001122498651966453</v>
       </c>
       <c r="CY2">
-        <v>-0.01012539584189653</v>
+        <v>-0.0099314134567976</v>
       </c>
       <c r="CZ2">
-        <v>0.004046651534736156</v>
+        <v>0.002529056509956717</v>
       </c>
       <c r="DA2">
-        <v>-0.03907959535717964</v>
+        <v>-0.03374098241329193</v>
       </c>
       <c r="DB2">
-        <v>-0.01164477691054344</v>
+        <v>-0.01437863986939192</v>
       </c>
       <c r="DC2">
-        <v>-0.002085031243041158</v>
+        <v>-0.002788307378068566</v>
       </c>
       <c r="DD2">
-        <v>0.1889394521713257</v>
+        <v>0.1859117299318314</v>
       </c>
       <c r="DE2">
-        <v>0.007737220730632544</v>
+        <v>0.003553256625309587</v>
       </c>
       <c r="DF2">
-        <v>0.03204543888568878</v>
+        <v>0.03017845377326012</v>
       </c>
       <c r="DG2">
-        <v>0.001915598521009088</v>
+        <v>0.007264173123985529</v>
       </c>
       <c r="DH2">
-        <v>0.03154686093330383</v>
+        <v>0.02580637112259865</v>
       </c>
       <c r="DI2">
-        <v>0.001745436922647059</v>
+        <v>0.00935976579785347</v>
       </c>
       <c r="DJ2">
-        <v>0.2230436950922012</v>
+        <v>0.2193857878446579</v>
       </c>
       <c r="DK2">
-        <v>-0.08421082049608231</v>
+        <v>-0.08631889522075653</v>
       </c>
       <c r="DL2">
-        <v>-0.08969741314649582</v>
+        <v>-0.09165855497121811</v>
       </c>
       <c r="DM2">
-        <v>-0.06164148822426796</v>
+        <v>-0.05528878793120384</v>
       </c>
       <c r="DN2">
-        <v>-0.1048646420240402</v>
+        <v>-0.1058862060308456</v>
       </c>
       <c r="DO2">
-        <v>-0.1196359843015671</v>
+        <v>-0.1181262359023094</v>
       </c>
       <c r="DP2">
-        <v>0.00310447090305388</v>
+        <v>0.002919471357017756</v>
       </c>
       <c r="DQ2">
-        <v>0.002597721060737967</v>
+        <v>-0.0007549888105131686</v>
       </c>
       <c r="DR2">
-        <v>0.005185631103813648</v>
+        <v>0.003526287619024515</v>
       </c>
       <c r="DS2">
-        <v>-0.01510787382721901</v>
+        <v>-0.003996217157691717</v>
       </c>
       <c r="DT2">
-        <v>0.01134238298982382</v>
+        <v>0.007166936993598938</v>
       </c>
       <c r="DU2">
-        <v>-0.0484679751098156</v>
+        <v>-0.04458210244774818</v>
       </c>
       <c r="DV2">
-        <v>0.0007457490428350866</v>
+        <v>0.004722813609987497</v>
       </c>
       <c r="DW2">
-        <v>0.006341902539134026</v>
+        <v>0.00111928500700742</v>
       </c>
       <c r="DX2">
-        <v>-0.01057372987270355</v>
+        <v>-0.01172319892793894</v>
       </c>
       <c r="DY2">
-        <v>0.1960956454277039</v>
+        <v>0.2005238085985184</v>
       </c>
       <c r="DZ2">
-        <v>-0.007796141784638166</v>
+        <v>-0.00203492515720427</v>
       </c>
       <c r="EA2">
-        <v>-0.05316168442368507</v>
+        <v>-0.05097366496920586</v>
       </c>
       <c r="EB2">
-        <v>-0.02733871340751648</v>
+        <v>-0.02927612513303757</v>
       </c>
       <c r="EC2">
-        <v>0.001283528166823089</v>
+        <v>-0.002114282455295324</v>
       </c>
       <c r="ED2">
-        <v>-0.04549653455615044</v>
+        <v>-0.04627683758735657</v>
       </c>
       <c r="EE2">
-        <v>-0.002839988796040416</v>
+        <v>-0.005544751416891813</v>
       </c>
       <c r="EF2">
-        <v>0.05953938513994217</v>
+        <v>0.05735005065798759</v>
       </c>
       <c r="EG2">
-        <v>0.09391741454601288</v>
+        <v>0.09450202435255051</v>
       </c>
       <c r="EH2">
-        <v>-0.2084451913833618</v>
+        <v>-0.2190672904253006</v>
       </c>
       <c r="EI2">
-        <v>0.03803836554288864</v>
+        <v>0.03869908303022385</v>
       </c>
       <c r="EJ2">
-        <v>-0.03873065114021301</v>
+        <v>-0.04355906695127487</v>
       </c>
       <c r="EK2">
-        <v>-0.004490590188652277</v>
+        <v>-0.007095880340784788</v>
       </c>
       <c r="EL2">
-        <v>-0.002790996106341481</v>
+        <v>-0.003860527882352471</v>
       </c>
       <c r="EM2">
-        <v>-0.04806913807988167</v>
+        <v>-0.03840695694088936</v>
       </c>
       <c r="EN2">
-        <v>-0.1091926097869873</v>
+        <v>-0.1022663563489914</v>
       </c>
       <c r="EO2">
-        <v>0.06114803999662399</v>
+        <v>0.06500951945781708</v>
       </c>
       <c r="EP2">
-        <v>-0.05887354537844658</v>
+        <v>-0.05659822374582291</v>
       </c>
       <c r="EQ2">
-        <v>-0.09768922626972198</v>
+        <v>-0.1065540760755539</v>
       </c>
       <c r="ER2">
-        <v>0.0001397729065502062</v>
+        <v>0.005226196721196175</v>
       </c>
       <c r="ES2">
-        <v>0.02044922485947609</v>
+        <v>0.01951659470796585</v>
       </c>
       <c r="ET2">
-        <v>-0.1117681339383125</v>
+        <v>-0.11428602039814</v>
       </c>
       <c r="EU2">
-        <v>0.02242438308894634</v>
+        <v>0.02527987584471703</v>
       </c>
       <c r="EV2">
-        <v>0.07092845439910889</v>
+        <v>0.07160326838493347</v>
       </c>
       <c r="EW2">
-        <v>-0.0588613785803318</v>
+        <v>-0.05906162410974503</v>
       </c>
       <c r="EX2">
-        <v>-0.1530543863773346</v>
+        <v>-0.1531699150800705</v>
       </c>
       <c r="EY2">
-        <v>-0.00492179486900568</v>
+        <v>-0.005483441054821014</v>
       </c>
       <c r="EZ2">
-        <v>-0.06358706206083298</v>
+        <v>-0.06524304300546646</v>
       </c>
       <c r="FA2">
-        <v>0.005897860042750835</v>
+        <v>0.002993267029523849</v>
       </c>
       <c r="FB2">
-        <v>0.01180034689605236</v>
+        <v>0.007385028060525656</v>
       </c>
       <c r="FC2">
-        <v>-0.1113733872771263</v>
+        <v>-0.1144049242138863</v>
       </c>
       <c r="FD2">
-        <v>0.008524619042873383</v>
+        <v>0.006231700070202351</v>
       </c>
       <c r="FE2">
-        <v>-0.05627254024147987</v>
+        <v>-0.04495149478316307</v>
       </c>
       <c r="FF2">
-        <v>-0.07364562898874283</v>
+        <v>-0.08295051753520966</v>
       </c>
       <c r="FG2">
-        <v>-0.1623722612857819</v>
+        <v>-0.155264675617218</v>
       </c>
       <c r="FH2">
-        <v>-0.001827960717491806</v>
+        <v>-0.001705878996290267</v>
       </c>
       <c r="FI2">
-        <v>0.008927118964493275</v>
+        <v>0.01219152193516493</v>
       </c>
       <c r="FJ2">
-        <v>0.02770507149398327</v>
+        <v>0.02207577601075172</v>
       </c>
       <c r="FK2">
-        <v>0.02964146062731743</v>
+        <v>0.0262396726757288</v>
       </c>
       <c r="FL2">
-        <v>0.02615075930953026</v>
+        <v>0.02858122065663338</v>
       </c>
       <c r="FM2">
-        <v>-0.008738965727388859</v>
+        <v>-0.006006160750985146</v>
       </c>
       <c r="FN2">
-        <v>-0.007953222841024399</v>
+        <v>-0.007976879365742207</v>
       </c>
       <c r="FO2">
-        <v>-0.001962114358320832</v>
+        <v>0.002789203077554703</v>
       </c>
       <c r="FP2">
-        <v>0.007012577261775732</v>
+        <v>0.002990547334775329</v>
       </c>
       <c r="FQ2">
-        <v>0.003628447186201811</v>
+        <v>0.002759717870503664</v>
       </c>
       <c r="FR2">
-        <v>0.002038764301687479</v>
+        <v>-0.002283095847815275</v>
       </c>
       <c r="FS2">
-        <v>0.0005324798985384405</v>
+        <v>-0.0007495668833144009</v>
       </c>
       <c r="FT2">
-        <v>0.001205844455398619</v>
+        <v>-0.0006235127220861614</v>
       </c>
       <c r="FU2">
-        <v>0.019822146743536</v>
+        <v>0.01903037540614605</v>
       </c>
       <c r="FV2">
-        <v>-0.009351452812552452</v>
+        <v>-0.009090523235499859</v>
       </c>
       <c r="FW2">
-        <v>0.05874941870570183</v>
+        <v>0.05878616496920586</v>
       </c>
       <c r="FX2">
-        <v>-0.001879860763438046</v>
+        <v>-0.005266776774078608</v>
       </c>
       <c r="FY2">
-        <v>0.0016641013789922</v>
+        <v>-0.00107113306876272</v>
       </c>
       <c r="FZ2">
-        <v>-0.0006253119790926576</v>
+        <v>-0.002401083242148161</v>
       </c>
       <c r="GA2">
-        <v>0.0507875457406044</v>
+        <v>0.0491299107670784</v>
       </c>
       <c r="GB2">
-        <v>-0.004690034780651331</v>
+        <v>0.003124924143776298</v>
       </c>
       <c r="GC2">
-        <v>-0.04271597415208817</v>
+        <v>-0.04770198464393616</v>
       </c>
       <c r="GD2">
-        <v>-0.03616264462471008</v>
+        <v>-0.03171220049262047</v>
       </c>
       <c r="GE2">
-        <v>0.002504873089492321</v>
+        <v>0.001745645888149738</v>
       </c>
       <c r="GF2">
-        <v>0.01998836919665337</v>
+        <v>0.01193037535995245</v>
       </c>
       <c r="GG2">
-        <v>-0.006683110725134611</v>
+        <v>-0.01224775239825249</v>
       </c>
       <c r="GH2">
-        <v>0.000341360952006653</v>
+        <v>-0.006179433781653643</v>
       </c>
       <c r="GI2">
-        <v>-0.07183295488357544</v>
+        <v>-0.07283176481723785</v>
       </c>
       <c r="GJ2">
-        <v>-0.006848161108791828</v>
+        <v>-0.002930487738922238</v>
       </c>
       <c r="GK2">
-        <v>0.02766403928399086</v>
+        <v>0.03438299521803856</v>
       </c>
       <c r="GL2">
-        <v>-0.05925744771957397</v>
+        <v>-0.05383992940187454</v>
       </c>
       <c r="GM2">
-        <v>0.008301878347992897</v>
+        <v>0.008990501053631306</v>
       </c>
       <c r="GN2">
-        <v>0.01228597667068243</v>
+        <v>0.01219803094863892</v>
       </c>
       <c r="GO2">
-        <v>-0.06270663440227509</v>
+        <v>-0.06559520214796066</v>
       </c>
       <c r="GP2">
-        <v>0.04344719648361206</v>
+        <v>0.04199720174074173</v>
       </c>
       <c r="GQ2">
-        <v>0.002273295540362597</v>
+        <v>0.001109227538108826</v>
       </c>
       <c r="GR2">
-        <v>-0.002482014242559671</v>
+        <v>0.004616286605596542</v>
       </c>
       <c r="GS2">
-        <v>-0.005921062547713518</v>
+        <v>-0.007952651008963585</v>
       </c>
       <c r="GT2">
-        <v>-0.006606438662856817</v>
+        <v>-0.002021648921072483</v>
       </c>
       <c r="GU2">
-        <v>-0.01912646368145943</v>
+        <v>-0.01950140111148357</v>
       </c>
       <c r="GV2">
-        <v>0.004194263368844986</v>
+        <v>-0.001220294623635709</v>
       </c>
       <c r="GW2">
-        <v>0.1392477601766586</v>
+        <v>0.1394635140895844</v>
       </c>
       <c r="GX2">
-        <v>0.005093361716717482</v>
+        <v>0.002385293133556843</v>
       </c>
       <c r="GY2">
-        <v>-0.01019466016441584</v>
+        <v>-0.01165934558957815</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Information Technology.xlsx
+++ b/static/Models/Regression/Equation/Information Technology.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008695051074028015</v>
+        <v>0.007998518645763397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03655208274722099</v>
+        <v>0.03891459479928017</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07985172420740128</v>
+        <v>-0.07828531414270401</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2009224146604538</v>
+        <v>0.2018938362598419</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00274725304916501</v>
+        <v>-0.003360796719789505</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1955149173736572</v>
+        <v>0.1967169195413589</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.002135379007086158</v>
+        <v>-0.001992853358387947</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.007954669184982777</v>
+        <v>-0.008176431991159916</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1055849567055702</v>
+        <v>-0.1041197627782822</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.002847376279532909</v>
+        <v>-0.002800894435495138</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.002515171421691775</v>
+        <v>0.0003159548796247691</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0006303887930698693</v>
+        <v>-0.00182518211659044</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.003700488246977329</v>
+        <v>-0.005280580371618271</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03609488159418106</v>
+        <v>0.03361475095152855</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07864803075790405</v>
+        <v>0.07860597223043442</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01216487400233746</v>
+        <v>0.01434790343046188</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.005026123020797968</v>
+        <v>-0.0008465029532089829</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.006382199469953775</v>
+        <v>-0.008137988857924938</v>
       </c>
       <c r="T2" t="n">
-        <v>0.003878519171848893</v>
+        <v>0.004686994012445211</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001049729879014194</v>
+        <v>0.001197246951051056</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.009674432687461376</v>
+        <v>-0.006834990344941616</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07029154896736145</v>
+        <v>0.07222398370504379</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004235819913446903</v>
+        <v>0.005121597554534674</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.005855313967913389</v>
+        <v>0.006249797530472279</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06834153085947037</v>
+        <v>0.06916044652462006</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.005975489038974047</v>
+        <v>-0.003611014224588871</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.06062895059585571</v>
+        <v>-0.0601496547460556</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.00671364413574338</v>
+        <v>-0.006177498027682304</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.007191788870841265</v>
+        <v>-0.00679591903463006</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0269237719476223</v>
+        <v>-0.02540230564773083</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.002247065305709839</v>
+        <v>0.002669337205588818</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.193947821855545</v>
+        <v>-0.1971161663532257</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.06045161187648773</v>
+        <v>-0.0594431646168232</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.05364742875099182</v>
+        <v>-0.05149756744503975</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.00269780564121902</v>
+        <v>0.001380303991027176</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.004609458614140749</v>
+        <v>-0.002771493513137102</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.006279466673731804</v>
+        <v>-0.007462752982974052</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.05327657610177994</v>
+        <v>-0.0515519306063652</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.07268506288528442</v>
+        <v>-0.07099732011556625</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1137720495462418</v>
+        <v>0.1159291043877602</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.1840281039476395</v>
+        <v>0.1845037043094635</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.004996323492377996</v>
+        <v>0.00712422002106905</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.01207839511334896</v>
+        <v>-0.01112871151417494</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1693449318408966</v>
+        <v>0.1710294187068939</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.02565369941294193</v>
+        <v>-0.02542657405138016</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.04398228228092194</v>
+        <v>-0.04475496336817741</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.06764954328536987</v>
+        <v>-0.06667224317789078</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.006466140039265156</v>
+        <v>-0.007547302637249231</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.005101232323795557</v>
+        <v>0.002656928962096572</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.01381086185574532</v>
+        <v>0.01414796151220798</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.06258738040924072</v>
+        <v>-0.06005281955003738</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.02164054475724697</v>
+        <v>0.02292130328714848</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.04449743777513504</v>
+        <v>0.04375215992331505</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.002497260691598058</v>
+        <v>0.0001642455172259361</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.03258461132645607</v>
+        <v>0.03294413164258003</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.004579969681799412</v>
+        <v>-0.005742711015045643</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.01771709695458412</v>
+        <v>-0.01481249742209911</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.08869357407093048</v>
+        <v>0.08915618062019348</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.0004353322146926075</v>
+        <v>-0.002250962890684605</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.06336581707000732</v>
+        <v>0.0641784593462944</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.02827872149646282</v>
+        <v>-0.02633262984454632</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.002258248394355178</v>
+        <v>-0.002241884591057897</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0515490286052227</v>
+        <v>0.05091004073619843</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.02935104444622993</v>
+        <v>-0.0312812328338623</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01718342863023281</v>
+        <v>0.01719974353909492</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.01514037512242794</v>
+        <v>-0.0131792426109314</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.04591072350740433</v>
+        <v>-0.04766342043876648</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.08922398835420609</v>
+        <v>-0.09182685613632202</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.004183851182460785</v>
+        <v>0.003579980693757534</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00218322710134089</v>
+        <v>-0.001191819086670876</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.004936650861054659</v>
+        <v>-0.002904118970036507</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.001676975400187075</v>
+        <v>0.002176312729716301</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.06207957491278648</v>
+        <v>-0.06114444509148598</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003548352746292949</v>
+        <v>0.002516458043828607</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.08180446177721024</v>
+        <v>0.08316432684659958</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.003189041744917631</v>
+        <v>0.005197498481720686</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.01472140662372112</v>
+        <v>0.01616371609270573</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.004239284433424473</v>
+        <v>-0.005702126771211624</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1343124508857727</v>
+        <v>-0.1322463303804398</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.006468337960541248</v>
+        <v>0.007501462008804083</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0001634595537325367</v>
+        <v>-0.002883671782910824</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.09644117206335068</v>
+        <v>-0.09368949383497238</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.001672029960900545</v>
+        <v>-0.0002269934775540605</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.02245375886559486</v>
+        <v>-0.02325810119509697</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.01275518722832203</v>
+        <v>-0.01228333450853825</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0171747375279665</v>
+        <v>0.0175943486392498</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.08305934071540833</v>
+        <v>-0.08141425997018814</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0047132708132267</v>
+        <v>0.005396898835897446</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.01321704220026731</v>
+        <v>-0.01176143530756235</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.1047452092170715</v>
+        <v>-0.102935329079628</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.0009930552914738655</v>
+        <v>-0.0003055221459362656</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.0009332865593023598</v>
+        <v>-0.0007361905300058424</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.03215067461133003</v>
+        <v>0.03415112197399139</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.02911946922540665</v>
+        <v>-0.03138397634029388</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.001765740918926895</v>
+        <v>-0.0004962026723660529</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001213093404658139</v>
+        <v>0.001957045868039131</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.006963819731026888</v>
+        <v>-0.005274520255625248</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0006753151537850499</v>
+        <v>0.001270604669116437</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.003809270681813359</v>
+        <v>-0.006530258804559708</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.09735250473022461</v>
+        <v>-0.09705290943384171</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0008543336880393326</v>
+        <v>0.001597505644895136</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.009060705080628395</v>
+        <v>-0.01019817776978016</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.003288538428023458</v>
+        <v>0.005255453288555145</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.03580376878380775</v>
+        <v>-0.03710369020700455</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.01583813317120075</v>
+        <v>-0.01425131410360336</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.001783604384399951</v>
+        <v>-0.002273656195029616</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.1884003281593323</v>
+        <v>0.1877508014440536</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.005027093924582005</v>
+        <v>0.005722079426050186</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.03202255815267563</v>
+        <v>0.03101500868797302</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.004235880915075541</v>
+        <v>0.001658244174905121</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.02716751024127007</v>
+        <v>0.02784176915884018</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.008372070267796516</v>
+        <v>0.006838242989033461</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.2223875969648361</v>
+        <v>0.2240188270807266</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.08699725568294525</v>
+        <v>-0.0848243311047554</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.09293396025896072</v>
+        <v>-0.09092340618371964</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.05674649029970169</v>
+        <v>-0.05508199334144592</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.1065375655889511</v>
+        <v>-0.1058818995952606</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.1172986626625061</v>
+        <v>-0.1171073913574219</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.00384400156326592</v>
+        <v>0.005049678031355143</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0006855144165456295</v>
+        <v>0.001478037447668612</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.006226328667253256</v>
+        <v>0.003844936145469546</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.007449301425367594</v>
+        <v>-0.00446900213137269</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.006223032251000404</v>
+        <v>0.006383290980011225</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.04596949368715286</v>
+        <v>-0.0477704145014286</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.006014980841428041</v>
+        <v>0.007829681038856506</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.0002747250546235591</v>
+        <v>-0.0009065381600521505</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.012403286062181</v>
+        <v>-0.01187540590763092</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.2004773914813995</v>
+        <v>0.2015892118215561</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0008646202622912824</v>
+        <v>0.003734972793608904</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.05224890261888504</v>
+        <v>-0.05104894563555717</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.02989265881478786</v>
+        <v>-0.02938847430050373</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.0001890698040369898</v>
+        <v>0.001020761206746101</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.04710960760712624</v>
+        <v>-0.04631353169679642</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.003992230631411076</v>
+        <v>-0.003391985315829515</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.05950865522027016</v>
+        <v>0.05649697780609131</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.09283213317394257</v>
+        <v>0.09334032982587814</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.2178682237863541</v>
+        <v>-0.216263085603714</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.03804753720760345</v>
+        <v>0.03939422592520714</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.04218336194753647</v>
+        <v>-0.04114162921905518</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.005242312792688608</v>
+        <v>-0.004570797551423311</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.004584190435707569</v>
+        <v>-0.004003968555480242</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.04030244797468185</v>
+        <v>-0.04204568639397621</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.1018925979733467</v>
+        <v>-0.1009818613529205</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.06359202414751053</v>
+        <v>0.06275822222232819</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.05627159774303436</v>
+        <v>-0.05926623567938805</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.1050288155674934</v>
+        <v>-0.1075434684753418</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.005444444715976715</v>
+        <v>0.004044159781187773</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.01802905835211277</v>
+        <v>0.01743437349796295</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.1125875115394592</v>
+        <v>-0.1134707555174828</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0235330481082201</v>
+        <v>0.0244187843054533</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0714895948767662</v>
+        <v>0.07257462292909622</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.05695021525025368</v>
+        <v>-0.05546571314334869</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1554911732673645</v>
+        <v>-0.1539531499147415</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.006361696869134903</v>
+        <v>-0.005244058556854725</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.06307125836610794</v>
+        <v>-0.06156475096940994</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0001420144835719839</v>
+        <v>-0.004752179142087698</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.008783986791968346</v>
+        <v>0.009543135762214661</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.1134222820401192</v>
+        <v>-0.1129956394433975</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.006726798601448536</v>
+        <v>0.009283087216317654</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.0445912703871727</v>
+        <v>-0.04226619377732277</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.08158732950687408</v>
+        <v>-0.08086758852005005</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1525600850582123</v>
+        <v>-0.1531257778406143</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.0007697236724197865</v>
+        <v>-0.001911485334858298</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.01112924888730049</v>
+        <v>0.01267675962299109</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.02226942963898182</v>
+        <v>0.02155177854001522</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02805535681545734</v>
+        <v>0.02686158381402493</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.02707373164594173</v>
+        <v>0.02521137893199921</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.007701755501329899</v>
+        <v>-0.005912789609283209</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.006687164772301912</v>
+        <v>-0.007711027748882771</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.001130369724705815</v>
+        <v>0.0008459644159302115</v>
       </c>
       <c r="FP2" t="n">
-        <v>4.4877095206175e-05</v>
+        <v>0.001238812110386789</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002080698497593403</v>
+        <v>0.002609233604744077</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.0008808313286863267</v>
+        <v>-1.170517225546064e-05</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.001742262858897448</v>
+        <v>-4.590528988046572e-05</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0009432868100702763</v>
+        <v>0.0009946865029633045</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.01816689223051071</v>
+        <v>0.01901312358677387</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.007458241190761328</v>
+        <v>-0.006912765093147755</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.05813075974583626</v>
+        <v>0.05843757838010788</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.004049813840538263</v>
+        <v>-0.0003574723668862134</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.002889440860599279</v>
+        <v>-0.00264813588000834</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.002335883211344481</v>
+        <v>-0.002294099889695644</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.04744324088096619</v>
+        <v>0.04223063960671425</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.001892031985335052</v>
+        <v>0.002415452385321259</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.04563406482338905</v>
+        <v>-0.047145776450634</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.0327201671898365</v>
+        <v>-0.03640288859605789</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0009915651753544807</v>
+        <v>0.001662628026679158</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01154916360974312</v>
+        <v>0.01290502771735191</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.01023491378873587</v>
+        <v>-0.008141485974192619</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.006504874210804701</v>
+        <v>-0.007631904445588589</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.07403717190027237</v>
+        <v>-0.07528241723775864</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.004699292592704296</v>
+        <v>-0.005619506817311049</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.03705058619379997</v>
+        <v>0.0329761728644371</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.05474799498915672</v>
+        <v>-0.05381651222705841</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.01006466429680586</v>
+        <v>0.01235211081802845</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.01058670412749052</v>
+        <v>0.01284234877675772</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.06666343659162521</v>
+        <v>-0.06799834221601486</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.04143096506595612</v>
+        <v>0.04196713492274284</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.0004062646476086229</v>
+        <v>0.001889099599793553</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.002010162686929107</v>
+        <v>0.003069830592721701</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.005307672079652548</v>
+        <v>-0.007360868621617556</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.001534012495540082</v>
+        <v>-0.0004296260594855994</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.01857603527605534</v>
+        <v>-0.01955902762711048</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.002834697486832738</v>
+        <v>-0.001948803779669106</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.1408957540988922</v>
+        <v>0.1394642144441605</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.001315311179496348</v>
+        <v>0.002404162893071771</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.01025582104921341</v>
+        <v>-0.009835250675678253</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Information Technology.xlsx
+++ b/static/Models/Regression/Equation/Information Technology.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.007998518645763397</v>
+        <v>0.008797824382781982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03891459479928017</v>
+        <v>0.03863111883401871</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07828531414270401</v>
+        <v>-0.07840158045291901</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2018938362598419</v>
+        <v>0.1958563774824142</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.003360796719789505</v>
+        <v>-0.007212123367935419</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1967169195413589</v>
+        <v>0.1943378299474716</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.001992853358387947</v>
+        <v>-0.002427746308967471</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.008176431991159916</v>
+        <v>-0.00884381216019392</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1041197627782822</v>
+        <v>-0.1025935038924217</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.002800894435495138</v>
+        <v>-0.0001101475063478574</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003159548796247691</v>
+        <v>0.005342024378478527</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.00182518211659044</v>
+        <v>0.0006740959943272173</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.005280580371618271</v>
+        <v>-0.004365145694464445</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03361475095152855</v>
+        <v>0.03072115033864975</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07860597223043442</v>
+        <v>0.07864769548177719</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01434790343046188</v>
+        <v>0.01599344052374363</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0008465029532089829</v>
+        <v>-0.001264419523067772</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.008137988857924938</v>
+        <v>-0.006185438018292189</v>
       </c>
       <c r="T2" t="n">
-        <v>0.004686994012445211</v>
+        <v>0.00423505948856473</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001197246951051056</v>
+        <v>0.001176373334601521</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.006834990344941616</v>
+        <v>-0.006365417037159204</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07222398370504379</v>
+        <v>0.07336670160293579</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005121597554534674</v>
+        <v>0.005389077123254538</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006249797530472279</v>
+        <v>0.005347569473087788</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06916044652462006</v>
+        <v>0.0703398585319519</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.003611014224588871</v>
+        <v>-0.007012791000306606</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.0601496547460556</v>
+        <v>-0.05990622565150261</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.006177498027682304</v>
+        <v>-0.007079589180648327</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00679591903463006</v>
+        <v>-0.007570188026875257</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.02540230564773083</v>
+        <v>-0.02344223484396935</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.002669337205588818</v>
+        <v>0.0001007846731226891</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.1971161663532257</v>
+        <v>-0.1971692591905594</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.0594431646168232</v>
+        <v>-0.0594371072947979</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.05149756744503975</v>
+        <v>-0.04913531243801117</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.001380303991027176</v>
+        <v>-0.001969592645764351</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.002771493513137102</v>
+        <v>-0.005991836544126272</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.007462752982974052</v>
+        <v>-0.006260114721953869</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.0515519306063652</v>
+        <v>-0.05274597555398941</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.07099732011556625</v>
+        <v>-0.06647700071334839</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1159291043877602</v>
+        <v>0.1180786341428757</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.1845037043094635</v>
+        <v>0.1845858842134476</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00712422002106905</v>
+        <v>0.00411422410979867</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.01112871151417494</v>
+        <v>-0.01646969467401505</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1710294187068939</v>
+        <v>0.1749933212995529</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.02542657405138016</v>
+        <v>-0.02668036334216595</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.04475496336817741</v>
+        <v>-0.04384831711649895</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.06667224317789078</v>
+        <v>-0.06662935763597488</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.007547302637249231</v>
+        <v>-0.007584234699606895</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.002656928962096572</v>
+        <v>0.0039886892773211</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.01414796151220798</v>
+        <v>0.01575762405991554</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.06005281955003738</v>
+        <v>-0.06050458922982216</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.02292130328714848</v>
+        <v>0.02252744697034359</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.04375215992331505</v>
+        <v>0.04478512704372406</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0001642455172259361</v>
+        <v>-0.0003381121787242591</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.03294413164258003</v>
+        <v>0.03216699510812759</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.005742711015045643</v>
+        <v>-0.004814439918845892</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.01481249742209911</v>
+        <v>-0.01249948423355818</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.08915618062019348</v>
+        <v>0.08874063193798065</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.002250962890684605</v>
+        <v>-0.0008925835718400776</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0641784593462944</v>
+        <v>0.06394230574369431</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.02633262984454632</v>
+        <v>-0.02496393583714962</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.002241884591057897</v>
+        <v>-0.003319015493616462</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.05091004073619843</v>
+        <v>0.05175844952464104</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.0312812328338623</v>
+        <v>-0.03149264678359032</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01719974353909492</v>
+        <v>0.02197250537574291</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.0131792426109314</v>
+        <v>-0.01018514577299356</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.04766342043876648</v>
+        <v>-0.04526642337441444</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.09182685613632202</v>
+        <v>-0.09476661682128906</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.003579980693757534</v>
+        <v>0.0004952051094733179</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.001191819086670876</v>
+        <v>7.116334018064663e-05</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.002904118970036507</v>
+        <v>-0.006499970331788063</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.002176312729716301</v>
+        <v>0.001792086870409548</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.06114444509148598</v>
+        <v>-0.06594675779342651</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.002516458043828607</v>
+        <v>0.002238514367491007</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.08316432684659958</v>
+        <v>0.08434410393238068</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.005197498481720686</v>
+        <v>0.006109376437962055</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.01616371609270573</v>
+        <v>0.01799944415688515</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.005702126771211624</v>
+        <v>-0.005212665535509586</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1322463303804398</v>
+        <v>-0.1289596408605576</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.007501462008804083</v>
+        <v>0.008191998116672039</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.002883671782910824</v>
+        <v>-0.004794246051460505</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.09368949383497238</v>
+        <v>-0.09200958907604218</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0002269934775540605</v>
+        <v>-0.0007417646702378988</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.02325810119509697</v>
+        <v>-0.02361582405865192</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.01228333450853825</v>
+        <v>-0.01126379426568747</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0175943486392498</v>
+        <v>0.01690730080008507</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.08141425997018814</v>
+        <v>-0.08120416849851608</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.005396898835897446</v>
+        <v>0.00485076243057847</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.01176143530756235</v>
+        <v>-0.01236392930150032</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.102935329079628</v>
+        <v>-0.09902621805667877</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.0003055221459362656</v>
+        <v>-0.005061067175120115</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.0007361905300058424</v>
+        <v>-0.001201257226057351</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.03415112197399139</v>
+        <v>0.03678896278142929</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.03138397634029388</v>
+        <v>-0.0327531136572361</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.0004962026723660529</v>
+        <v>-0.002173402579501271</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001957045868039131</v>
+        <v>0.0006794973160140216</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.005274520255625248</v>
+        <v>-0.004661481827497482</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.001270604669116437</v>
+        <v>0.005655224435031414</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.006530258804559708</v>
+        <v>-0.006806814577430487</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.09705290943384171</v>
+        <v>-0.09709697961807251</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.001597505644895136</v>
+        <v>0.00349357514642179</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.01019817776978016</v>
+        <v>-0.009266615845263004</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.005255453288555145</v>
+        <v>0.001644771546125412</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.03710369020700455</v>
+        <v>-0.03594202548265457</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.01425131410360336</v>
+        <v>-0.01597831025719643</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.002273656195029616</v>
+        <v>-0.005627819336950779</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.1877508014440536</v>
+        <v>0.1877721399068832</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.005722079426050186</v>
+        <v>0.004181425552815199</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.03101500868797302</v>
+        <v>0.03117469511926174</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.001658244174905121</v>
+        <v>-0.002258418593555689</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.02784176915884018</v>
+        <v>0.02738967910408974</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.006838242989033461</v>
+        <v>0.006112478207796812</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.2240188270807266</v>
+        <v>0.2240361422300339</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.0848243311047554</v>
+        <v>-0.08350532501935959</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.09092340618371964</v>
+        <v>-0.08633244037628174</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.05508199334144592</v>
+        <v>-0.05549877136945724</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.1058818995952606</v>
+        <v>-0.1062818393111229</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.1171073913574219</v>
+        <v>-0.1174915283918381</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.005049678031355143</v>
+        <v>0.00586286373436451</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.001478037447668612</v>
+        <v>0.0001548546570120379</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.003844936145469546</v>
+        <v>0.003553853370249271</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00446900213137269</v>
+        <v>-0.005748317576944828</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.006383290980011225</v>
+        <v>0.008950318209826946</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.0477704145014286</v>
+        <v>-0.04573559015989304</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.007829681038856506</v>
+        <v>0.007581518031656742</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.0009065381600521505</v>
+        <v>0.003181061241775751</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.01187540590763092</v>
+        <v>-0.01227348949760199</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.2015892118215561</v>
+        <v>0.2009326219558716</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.003734972793608904</v>
+        <v>-0.001649491721764207</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.05104894563555717</v>
+        <v>-0.0508999414741993</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.02938847430050373</v>
+        <v>-0.03029210865497589</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001020761206746101</v>
+        <v>-0.0007604055572301149</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.04631353169679642</v>
+        <v>-0.04671602696180344</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.003391985315829515</v>
+        <v>-0.004734102170914412</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.05649697780609131</v>
+        <v>0.05379750579595566</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.09334032982587814</v>
+        <v>0.09284496307373047</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.216263085603714</v>
+        <v>-0.2164506316184998</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.03939422592520714</v>
+        <v>0.0415499247610569</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.04114162921905518</v>
+        <v>-0.04503395035862923</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.004570797551423311</v>
+        <v>-0.005585541483014822</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.004003968555480242</v>
+        <v>-0.004592990502715111</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.04204568639397621</v>
+        <v>-0.0433022528886795</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.1009818613529205</v>
+        <v>-0.09957890957593918</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.06275822222232819</v>
+        <v>0.06319523602724075</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.05926623567938805</v>
+        <v>-0.05893594026565552</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.1075434684753418</v>
+        <v>-0.1099816039204597</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.004044159781187773</v>
+        <v>0.004122168757021427</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.01743437349796295</v>
+        <v>0.01775783114135265</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.1134707555174828</v>
+        <v>-0.1116238385438919</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0244187843054533</v>
+        <v>0.02323534898459911</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.07257462292909622</v>
+        <v>0.07506895810365677</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.05546571314334869</v>
+        <v>-0.05747001245617867</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1539531499147415</v>
+        <v>-0.1487075090408325</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.005244058556854725</v>
+        <v>-0.006132008507847786</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.06156475096940994</v>
+        <v>-0.06221172213554382</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.004752179142087698</v>
+        <v>-0.003520434256643057</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.009543135762214661</v>
+        <v>0.008164944127202034</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.1129956394433975</v>
+        <v>-0.1138390079140663</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.009283087216317654</v>
+        <v>0.005556332413107157</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.04226619377732277</v>
+        <v>-0.04387781769037247</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.08086758852005005</v>
+        <v>-0.08200261741876602</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1531257778406143</v>
+        <v>-0.1520880907773972</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.001911485334858298</v>
+        <v>0.00179272354580462</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.01267675962299109</v>
+        <v>0.01133240107446909</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.02155177854001522</v>
+        <v>0.02047924883663654</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02686158381402493</v>
+        <v>0.02811023220419884</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.02521137893199921</v>
+        <v>0.02359922602772713</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.005912789609283209</v>
+        <v>-0.01164443697780371</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.007711027748882771</v>
+        <v>-0.006740652024745941</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0008459644159302115</v>
+        <v>-0.004958154633641243</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.001238812110386789</v>
+        <v>0.001068833284080029</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002609233604744077</v>
+        <v>0.001942477072589099</v>
       </c>
       <c r="FR2" t="n">
-        <v>-1.170517225546064e-05</v>
+        <v>-0.001433724770322442</v>
       </c>
       <c r="FS2" t="n">
-        <v>-4.590528988046572e-05</v>
+        <v>-0.0001083683455362916</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0009946865029633045</v>
+        <v>0.0005103274597786367</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.01901312358677387</v>
+        <v>0.01874074339866638</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.006912765093147755</v>
+        <v>-0.007411549333482981</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.05843757838010788</v>
+        <v>0.05805774033069611</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.0003574723668862134</v>
+        <v>-0.001444324501790106</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.00264813588000834</v>
+        <v>-0.00326827191747725</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.002294099889695644</v>
+        <v>-0.001525536645203829</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.04223063960671425</v>
+        <v>0.04289949312806129</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.002415452385321259</v>
+        <v>0.002883052220568061</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.047145776450634</v>
+        <v>-0.04659923166036606</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.03640288859605789</v>
+        <v>-0.03543961420655251</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.001662628026679158</v>
+        <v>0.001039463561028242</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01290502771735191</v>
+        <v>0.01259021833539009</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.008141485974192619</v>
+        <v>-0.008006102405488491</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.007631904445588589</v>
+        <v>-0.003252261318266392</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.07528241723775864</v>
+        <v>-0.07463248819112778</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.005619506817311049</v>
+        <v>-0.005975726060569286</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.0329761728644371</v>
+        <v>0.03420896828174591</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.05381651222705841</v>
+        <v>-0.0577874667942524</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.01235211081802845</v>
+        <v>0.008945610374212265</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.01284234877675772</v>
+        <v>0.01516713481396437</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.06799834221601486</v>
+        <v>-0.06536276638507843</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.04196713492274284</v>
+        <v>0.04173523932695389</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.001889099599793553</v>
+        <v>0.001355737447738647</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.003069830592721701</v>
+        <v>0.003429173491895199</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.007360868621617556</v>
+        <v>-0.005550405941903591</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.0004296260594855994</v>
+        <v>0.0007335695554502308</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.01955902762711048</v>
+        <v>-0.01972897723317146</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.001948803779669106</v>
+        <v>-0.0008531088824383914</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.1394642144441605</v>
+        <v>0.142466276884079</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.002404162893071771</v>
+        <v>0.001328045385889709</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.009835250675678253</v>
+        <v>-0.01053598895668983</v>
       </c>
     </row>
   </sheetData>
